--- a/MirrorMe/Login.xlsx
+++ b/MirrorMe/Login.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365" tabRatio="809" activeTab="1"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>7148691</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>welkom</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -104,9 +110,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -408,16 +415,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B1" t="s">
@@ -431,7 +441,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -445,7 +455,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
@@ -459,7 +469,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
@@ -470,6 +480,20 @@
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -481,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
